--- a/metrics/MAPE/average & upto/Amputación extremidades inferiores.xlsx
+++ b/metrics/MAPE/average & upto/Amputación extremidades inferiores.xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17057615268390.15</v>
+        <v>16920458053482.69</v>
       </c>
       <c r="C3" t="n">
-        <v>17550831150947.96</v>
+        <v>17070744193477.04</v>
       </c>
       <c r="D3" t="n">
-        <v>16760023372777.7</v>
+        <v>17078817466025.85</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22113621501349.07</v>
+        <v>22039330539476.34</v>
       </c>
       <c r="C4" t="n">
-        <v>21708273105853.23</v>
+        <v>22169435784887.55</v>
       </c>
       <c r="D4" t="n">
-        <v>21449995488038.65</v>
+        <v>21848490845864.3</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36402565384578.41</v>
+        <v>60723967970313.23</v>
       </c>
       <c r="C5" t="n">
-        <v>55049940641350.47</v>
+        <v>97144462876311.16</v>
       </c>
       <c r="D5" t="n">
-        <v>84924140730061.19</v>
+        <v>44742524960772.27</v>
       </c>
     </row>
   </sheetData>
